--- a/natmiOut/OldD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.05155970267359</v>
+        <v>2.156459</v>
       </c>
       <c r="H2">
-        <v>1.05155970267359</v>
+        <v>6.469377</v>
       </c>
       <c r="I2">
-        <v>0.007702204793678699</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J2">
-        <v>0.007702204793678699</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0653411950566061</v>
+        <v>0.146719</v>
       </c>
       <c r="N2">
-        <v>0.0653411950566061</v>
+        <v>0.440157</v>
       </c>
       <c r="O2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q2">
-        <v>0.06871016764606175</v>
+        <v>0.316393508021</v>
       </c>
       <c r="R2">
-        <v>0.06871016764606175</v>
+        <v>2.847541572189</v>
       </c>
       <c r="S2">
-        <v>9.896462043999748E-05</v>
+        <v>3.075267762915897E-05</v>
       </c>
       <c r="T2">
-        <v>9.896462043999748E-05</v>
+        <v>3.083179602175742E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.05155970267359</v>
+        <v>2.156459</v>
       </c>
       <c r="H3">
-        <v>1.05155970267359</v>
+        <v>6.469377</v>
       </c>
       <c r="I3">
-        <v>0.007702204793678699</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J3">
-        <v>0.007702204793678699</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.02002429770372</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N3">
-        <v>5.02002429770372</v>
+        <v>86.795951</v>
       </c>
       <c r="O3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q3">
-        <v>5.27885525790752</v>
+        <v>62.39063656583633</v>
       </c>
       <c r="R3">
-        <v>5.27885525790752</v>
+        <v>561.515729092527</v>
       </c>
       <c r="S3">
-        <v>0.0076032401732387</v>
+        <v>0.006064217769158001</v>
       </c>
       <c r="T3">
-        <v>0.0076032401732387</v>
+        <v>0.006079819375237589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.59700806081059</v>
+        <v>2.156459</v>
       </c>
       <c r="H4">
-        <v>2.59700806081059</v>
+        <v>6.469377</v>
       </c>
       <c r="I4">
-        <v>0.01902192322921916</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J4">
-        <v>0.01902192322921916</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0653411950566061</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N4">
-        <v>0.0653411950566061</v>
+        <v>111.627821</v>
       </c>
       <c r="O4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q4">
-        <v>0.1696916102650031</v>
+        <v>80.24027308194633</v>
       </c>
       <c r="R4">
-        <v>0.1696916102650031</v>
+        <v>722.162457737517</v>
       </c>
       <c r="S4">
-        <v>0.0002444101997863567</v>
+        <v>0.007799158922062949</v>
       </c>
       <c r="T4">
-        <v>0.0002444101997863567</v>
+        <v>0.00781922406647003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.59700806081059</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H5">
-        <v>2.59700806081059</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I5">
-        <v>0.01902192322921916</v>
+        <v>0.01939226083762105</v>
       </c>
       <c r="J5">
-        <v>0.01902192322921916</v>
+        <v>0.01944215192433629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.02002429770372</v>
+        <v>0.146719</v>
       </c>
       <c r="N5">
-        <v>5.02002429770372</v>
+        <v>0.440157</v>
       </c>
       <c r="O5">
-        <v>0.9871511309954755</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P5">
-        <v>0.9871511309954755</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q5">
-        <v>13.03704356660158</v>
+        <v>0.4415955308886667</v>
       </c>
       <c r="R5">
-        <v>13.03704356660158</v>
+        <v>3.974359777998</v>
       </c>
       <c r="S5">
-        <v>0.0187775130294328</v>
+        <v>4.29220090160482E-05</v>
       </c>
       <c r="T5">
-        <v>0.0187775130294328</v>
+        <v>4.303243583485716E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.39151237546589</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H6">
-        <v>64.39151237546589</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I6">
-        <v>0.4716390462943429</v>
+        <v>0.01939226083762105</v>
       </c>
       <c r="J6">
-        <v>0.4716390462943429</v>
+        <v>0.01944215192433629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0653411950566061</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N6">
-        <v>0.0653411950566061</v>
+        <v>86.795951</v>
       </c>
       <c r="O6">
-        <v>0.0128488690045244</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P6">
-        <v>0.0128488690045244</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q6">
-        <v>4.207418370115183</v>
+        <v>87.0796194558571</v>
       </c>
       <c r="R6">
-        <v>4.207418370115183</v>
+        <v>783.7165751027139</v>
       </c>
       <c r="S6">
-        <v>0.00606002832325483</v>
+        <v>0.008463926715645729</v>
       </c>
       <c r="T6">
-        <v>0.00606002832325483</v>
+        <v>0.008485702129315008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.39151237546589</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H7">
-        <v>64.39151237546589</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I7">
-        <v>0.4716390462943429</v>
+        <v>0.01939226083762105</v>
       </c>
       <c r="J7">
-        <v>0.4716390462943429</v>
+        <v>0.01944215192433629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>5.02002429770372</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N7">
-        <v>5.02002429770372</v>
+        <v>111.627821</v>
       </c>
       <c r="O7">
-        <v>0.9871511309954755</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P7">
-        <v>0.9871511309954755</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q7">
-        <v>323.2469566907286</v>
+        <v>111.9926455252104</v>
       </c>
       <c r="R7">
-        <v>323.2469566907286</v>
+        <v>1007.933809726894</v>
       </c>
       <c r="S7">
-        <v>0.465579017971088</v>
+        <v>0.01088541211295927</v>
       </c>
       <c r="T7">
-        <v>0.465579017971088</v>
+        <v>0.01091341735918643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.7101474302312</v>
+        <v>80.649016</v>
       </c>
       <c r="H8">
-        <v>67.7101474302312</v>
+        <v>241.947048</v>
       </c>
       <c r="I8">
-        <v>0.4959465646999029</v>
+        <v>0.519624004803459</v>
       </c>
       <c r="J8">
-        <v>0.4959465646999029</v>
+        <v>0.5209608580203196</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0653411950566061</v>
+        <v>0.146719</v>
       </c>
       <c r="N8">
-        <v>0.0653411950566061</v>
+        <v>0.440157</v>
       </c>
       <c r="O8">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P8">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q8">
-        <v>4.424261950550293</v>
+        <v>11.832742978504</v>
       </c>
       <c r="R8">
-        <v>4.424261950550293</v>
+        <v>106.494686806536</v>
       </c>
       <c r="S8">
-        <v>0.006372352443072937</v>
+        <v>0.001150113769914886</v>
       </c>
       <c r="T8">
-        <v>0.006372352443072937</v>
+        <v>0.001153072704219023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.7101474302312</v>
+        <v>80.649016</v>
       </c>
       <c r="H9">
-        <v>67.7101474302312</v>
+        <v>241.947048</v>
       </c>
       <c r="I9">
-        <v>0.4959465646999029</v>
+        <v>0.519624004803459</v>
       </c>
       <c r="J9">
-        <v>0.4959465646999029</v>
+        <v>0.5209608580203196</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.02002429770372</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N9">
-        <v>5.02002429770372</v>
+        <v>86.795951</v>
       </c>
       <c r="O9">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P9">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q9">
-        <v>339.9065853008617</v>
+        <v>2333.336013644739</v>
       </c>
       <c r="R9">
-        <v>339.9065853008617</v>
+        <v>21000.02412280265</v>
       </c>
       <c r="S9">
-        <v>0.48957421225683</v>
+        <v>0.22679457197763</v>
       </c>
       <c r="T9">
-        <v>0.48957421225683</v>
+        <v>0.2273780535918589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.776874843963942</v>
+        <v>80.649016</v>
       </c>
       <c r="H10">
-        <v>0.776874843963942</v>
+        <v>241.947048</v>
       </c>
       <c r="I10">
-        <v>0.005690260982856267</v>
+        <v>0.519624004803459</v>
       </c>
       <c r="J10">
-        <v>0.005690260982856267</v>
+        <v>0.5209608580203196</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.0653411950566061</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N10">
-        <v>0.0653411950566061</v>
+        <v>111.627821</v>
       </c>
       <c r="O10">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P10">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q10">
-        <v>0.05076193071401836</v>
+        <v>3000.891307291379</v>
       </c>
       <c r="R10">
-        <v>0.05076193071401836</v>
+        <v>27008.02176562241</v>
       </c>
       <c r="S10">
-        <v>7.311341797027643E-05</v>
+        <v>0.2916793190559142</v>
       </c>
       <c r="T10">
-        <v>7.311341797027643E-05</v>
+        <v>0.2924297317242417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H11">
+        <v>204.5891</v>
+      </c>
+      <c r="I11">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J11">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.146719</v>
+      </c>
+      <c r="N11">
+        <v>0.440157</v>
+      </c>
+      <c r="O11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q11">
+        <v>10.00570272096667</v>
+      </c>
+      <c r="R11">
+        <v>90.05132448870002</v>
+      </c>
+      <c r="S11">
+        <v>0.0009725299111088701</v>
+      </c>
+      <c r="T11">
+        <v>0.0009750319697669392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.776874843963942</v>
-      </c>
-      <c r="H11">
-        <v>0.776874843963942</v>
-      </c>
-      <c r="I11">
-        <v>0.005690260982856267</v>
-      </c>
-      <c r="J11">
-        <v>0.005690260982856267</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="N11">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="O11">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="P11">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="Q11">
-        <v>3.899930592973775</v>
-      </c>
-      <c r="R11">
-        <v>3.899930592973775</v>
-      </c>
-      <c r="S11">
-        <v>0.00561714756488599</v>
-      </c>
-      <c r="T11">
-        <v>0.00561714756488599</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H12">
+        <v>204.5891</v>
+      </c>
+      <c r="I12">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J12">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N12">
+        <v>86.795951</v>
+      </c>
+      <c r="O12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q12">
+        <v>1973.056166526012</v>
+      </c>
+      <c r="R12">
+        <v>17757.5054987341</v>
+      </c>
+      <c r="S12">
+        <v>0.1917762491807238</v>
+      </c>
+      <c r="T12">
+        <v>0.1922696380412551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H13">
+        <v>204.5891</v>
+      </c>
+      <c r="I13">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J13">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N13">
+        <v>111.627821</v>
+      </c>
+      <c r="O13">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P13">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q13">
+        <v>2537.537270372345</v>
+      </c>
+      <c r="R13">
+        <v>22837.8354333511</v>
+      </c>
+      <c r="S13">
+        <v>0.2466424362997904</v>
+      </c>
+      <c r="T13">
+        <v>0.2472769811463212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.19484</v>
+      </c>
+      <c r="H14">
+        <v>2.38968</v>
+      </c>
+      <c r="I14">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J14">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.146719</v>
+      </c>
+      <c r="N14">
+        <v>0.440157</v>
+      </c>
+      <c r="O14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q14">
+        <v>0.17530572996</v>
+      </c>
+      <c r="R14">
+        <v>1.05183437976</v>
+      </c>
+      <c r="S14">
+        <v>1.703928956610087E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.138875139248698E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.19484</v>
+      </c>
+      <c r="H15">
+        <v>2.38968</v>
+      </c>
+      <c r="I15">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J15">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N15">
+        <v>86.795951</v>
+      </c>
+      <c r="O15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q15">
+        <v>34.56909136428001</v>
+      </c>
+      <c r="R15">
+        <v>207.41454818568</v>
+      </c>
+      <c r="S15">
+        <v>0.003360031403008704</v>
+      </c>
+      <c r="T15">
+        <v>0.002245783908499653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.19484</v>
+      </c>
+      <c r="H16">
+        <v>2.38968</v>
+      </c>
+      <c r="I16">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J16">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N16">
+        <v>111.627821</v>
+      </c>
+      <c r="O16">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P16">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q16">
+        <v>44.45912854788001</v>
+      </c>
+      <c r="R16">
+        <v>266.75477128728</v>
+      </c>
+      <c r="S16">
+        <v>0.004321318905871938</v>
+      </c>
+      <c r="T16">
+        <v>0.002888291000379496</v>
       </c>
     </row>
   </sheetData>
